--- a/Data/Age/TJ_Age_Calibration.xlsx
+++ b/Data/Age/TJ_Age_Calibration.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ross\Documents\Work\Postdoc\St_Andrews\Output\Private_Papers\Trudgill_et_al_202X\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ross\Documents\Work\Postdoc\St_Andrews\Repositories\Triassic-Jurassic-CO2\Data\Age\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08B8C083-D3B5-4564-8D7A-7B4608236482}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D4A0CE-2837-4663-9822-CFFF1469B195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2208" windowWidth="20736" windowHeight="10752" xr2:uid="{2246D37B-7539-4E55-AAA0-09A7C6EF29D4}"/>
+    <workbookView xWindow="-83" yWindow="0" windowWidth="10965" windowHeight="13763" xr2:uid="{2246D37B-7539-4E55-AAA0-09A7C6EF29D4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Matlab" sheetId="1" r:id="rId1"/>
+    <sheet name="Correlation" sheetId="1" r:id="rId1"/>
+    <sheet name="Cyclostratigraphy" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,19 +40,19 @@
     <t>height_CVR</t>
   </si>
   <si>
-    <t>height_SAB</t>
-  </si>
-  <si>
-    <t>age_Xu</t>
-  </si>
-  <si>
-    <t>age_CIE</t>
-  </si>
-  <si>
     <t>m</t>
   </si>
   <si>
     <t>kyr</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>height_hesselbo</t>
   </si>
 </sst>
 </file>
@@ -403,145 +404,1139 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0706D311-D288-4172-B4C1-C942B98433C8}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>4.7</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>8.5</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>12.2</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>19.7</v>
+      </c>
+      <c r="B7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>23.45</v>
+      </c>
+      <c r="B8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>27.2</v>
+      </c>
+      <c r="B9">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FADFBDBE-556A-4BA5-B74C-ACBCCC1FB9CA}">
+  <dimension ref="A1:B130"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>0.3</v>
+      </c>
+      <c r="B3">
+        <v>-302.79999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>0.5</v>
+      </c>
+      <c r="B4">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B5">
+        <v>-291.30434782608694</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>1.3</v>
+      </c>
+      <c r="B6">
+        <v>-288.40579710144925</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>1.7</v>
+      </c>
+      <c r="B7">
+        <v>-282.60869565217394</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>-278.26086956521738</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B9">
+        <v>-275.36231884057969</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>2.4</v>
+      </c>
+      <c r="B10">
+        <v>-272.46376811594206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>2.6</v>
+      </c>
+      <c r="B11">
+        <v>-269.56521739130437</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>2.8</v>
+      </c>
+      <c r="B12">
+        <v>-266.66666666666669</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B13">
+        <v>-263.768115942029</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>3.2</v>
+      </c>
+      <c r="B14">
+        <v>-260.86956521739131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>3.4</v>
+      </c>
+      <c r="B15">
+        <v>-257.97101449275362</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>3.6</v>
+      </c>
+      <c r="B16">
+        <v>-255.07246376811594</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>3.8</v>
+      </c>
+      <c r="B17">
+        <v>-252.17391304347825</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B18">
+        <v>-249.27536231884059</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>4.2</v>
+      </c>
+      <c r="B19">
+        <v>-246.37681159420288</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B20">
+        <v>-243.47826086956522</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B21">
+        <v>-240.57971014492756</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="B22">
+        <v>-234.78260869565219</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>5.2</v>
+      </c>
+      <c r="B23">
+        <v>-231.8840579710145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>5.4</v>
+      </c>
+      <c r="B24">
+        <v>-228.98550724637681</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>5.6</v>
+      </c>
+      <c r="B25">
+        <v>-226.08695652173913</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>-220.28985507246375</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>6.2</v>
+      </c>
+      <c r="B27">
+        <v>-217.39130434782609</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>6.4</v>
+      </c>
+      <c r="B28">
+        <v>-214.49275362318841</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>6.6</v>
+      </c>
+      <c r="B29">
+        <v>-211.59420289855075</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>6.8</v>
+      </c>
+      <c r="B30">
+        <v>-208.69565217391306</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>7</v>
+      </c>
+      <c r="B31">
+        <v>-205.79710144927537</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>7.2</v>
+      </c>
+      <c r="B32">
+        <v>-202.89855072463769</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>7.4</v>
+      </c>
+      <c r="B33">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>7.6</v>
+      </c>
+      <c r="B34">
+        <v>-196.15384615384616</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>7.8</v>
+      </c>
+      <c r="B35">
+        <v>-192.30769230769232</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>8</v>
+      </c>
+      <c r="B36">
+        <v>-188.46153846153845</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="B37">
+        <v>-184.61538461538464</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>8.4</v>
+      </c>
+      <c r="B38">
+        <v>-180.76923076923077</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>8.6</v>
+      </c>
+      <c r="B39">
+        <v>-176.92307692307693</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="B40">
+        <v>-173.07692307692307</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>9</v>
+      </c>
+      <c r="B41">
+        <v>-169.23076923076923</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="B42">
+        <v>-165.38461538461542</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>9.4</v>
+      </c>
+      <c r="B43">
+        <v>-161.53846153846155</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>9.6</v>
+      </c>
+      <c r="B44">
+        <v>-157.69230769230771</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>10</v>
+      </c>
+      <c r="B45">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="B46">
+        <v>-146.15384615384616</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>10.4</v>
+      </c>
+      <c r="B47">
+        <v>-142.30769230769229</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>10.8</v>
+      </c>
+      <c r="B48">
+        <v>-134.61538461538458</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>11</v>
+      </c>
+      <c r="B49">
+        <v>-130.76923076923077</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A50">
+        <v>11.2</v>
+      </c>
+      <c r="B50">
+        <v>-126.92307692307693</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <v>11.4</v>
+      </c>
+      <c r="B51">
+        <v>-123.07692307692307</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <v>11.6</v>
+      </c>
+      <c r="B52">
+        <v>-119.23076923076923</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A53">
+        <v>11.8</v>
+      </c>
+      <c r="B53">
+        <v>-115.38461538461536</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <v>12</v>
+      </c>
+      <c r="B54">
+        <v>-111.53846153846153</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A55">
+        <v>12.6</v>
+      </c>
+      <c r="B55">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A56">
+        <v>12.8</v>
+      </c>
+      <c r="B56">
+        <v>-88.888888888888829</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A57">
+        <v>13</v>
+      </c>
+      <c r="B57">
+        <v>-77.777777777777771</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A58">
+        <v>13.2</v>
+      </c>
+      <c r="B58">
+        <v>-66.6666666666667</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A59">
+        <v>13.4</v>
+      </c>
+      <c r="B59">
+        <v>-55.555555555555536</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A60">
+        <v>13.6</v>
+      </c>
+      <c r="B60">
+        <v>-44.444444444444464</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A61">
+        <v>13.8</v>
+      </c>
+      <c r="B61">
+        <v>-33.3333333333333</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A62">
+        <v>14</v>
+      </c>
+      <c r="B62">
+        <v>-22.222222222222229</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A63">
+        <v>14.2</v>
+      </c>
+      <c r="B63">
+        <v>-11.111111111111157</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A64">
+        <v>14.4</v>
+      </c>
+      <c r="B64">
         <v>0</v>
       </c>
-      <c r="B3">
-        <v>4.7</v>
-      </c>
-      <c r="C3">
-        <v>-239.13043478260869</v>
-      </c>
-      <c r="D3">
-        <f>C3+77.7777777</f>
-        <v>-161.35265708260869</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>8.5</v>
-      </c>
-      <c r="C4">
-        <v>-178.84615384615384</v>
-      </c>
-      <c r="D4">
-        <f t="shared" ref="D4:D9" si="0">C4+77.7777777</f>
-        <v>-101.06837614615384</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>12.2</v>
-      </c>
-      <c r="C5">
-        <v>-107.69230769230769</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>-29.914529992307692</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A65">
+        <v>14.6</v>
+      </c>
+      <c r="B65">
+        <v>5.1282051282051091</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A66">
+        <v>14.8</v>
+      </c>
+      <c r="B66">
+        <v>10.256410256410264</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A67">
         <v>15</v>
       </c>
-      <c r="B6">
-        <v>16</v>
-      </c>
-      <c r="C6">
-        <v>41.025641025641015</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>118.80341872564102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="B67">
+        <v>15.384615384615374</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A68">
+        <v>15.2</v>
+      </c>
+      <c r="B68">
+        <v>20.512820512820483</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A69">
+        <v>15.4</v>
+      </c>
+      <c r="B69">
+        <v>25.641025641025639</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A70">
+        <v>15.6</v>
+      </c>
+      <c r="B70">
+        <v>30.769230769230749</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A71">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="B71">
+        <v>43.589743589743613</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A72">
+        <v>16.3</v>
+      </c>
+      <c r="B72">
+        <v>48.717948717948723</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A73">
+        <v>16.5</v>
+      </c>
+      <c r="B73">
+        <v>53.846153846153832</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A74">
+        <v>16.7</v>
+      </c>
+      <c r="B74">
+        <v>58.974358974358942</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A75">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="B75">
+        <v>64.10256410256406</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A76">
+        <v>17.3</v>
+      </c>
+      <c r="B76">
+        <v>74.358974358974365</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A77">
+        <v>17.7</v>
+      </c>
+      <c r="B77">
+        <v>84.615384615384585</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A78">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="B78">
+        <v>89.743589743589695</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A79">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="B79">
+        <v>94.87179487179489</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A80">
+        <v>18.3</v>
+      </c>
+      <c r="B80">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A81">
+        <v>18.7</v>
+      </c>
+      <c r="B81">
+        <v>109.99999999999997</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A82">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="B82">
+        <v>114.99999999999994</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A83">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>120.00000000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A84">
+        <v>19.5</v>
+      </c>
+      <c r="B84">
+        <v>129.99999999999997</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A85">
+        <v>19.8</v>
+      </c>
+      <c r="B85">
+        <v>137.5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A86">
         <v>20</v>
       </c>
-      <c r="B7">
-        <v>19.7</v>
-      </c>
-      <c r="C7">
-        <v>134.99999999999997</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>212.77777769999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>25</v>
-      </c>
-      <c r="B8">
-        <v>23.45</v>
-      </c>
-      <c r="C8">
-        <v>229.48717948717947</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>307.26495718717945</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>30</v>
-      </c>
-      <c r="B9">
-        <v>27.2</v>
-      </c>
-      <c r="C9">
-        <v>329.23976608187138</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>407.01754378187138</v>
+      <c r="B86">
+        <v>142.5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A87">
+        <v>20.3</v>
+      </c>
+      <c r="B87">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A88">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="B88">
+        <v>152.49999999999994</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A89">
+        <v>20.5</v>
+      </c>
+      <c r="B89">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A90">
+        <v>20.7</v>
+      </c>
+      <c r="B90">
+        <v>159.99999999999997</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A91">
+        <v>20.9</v>
+      </c>
+      <c r="B91">
+        <v>164.99999999999994</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A92">
+        <v>21.1</v>
+      </c>
+      <c r="B92">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A93">
+        <v>21.3</v>
+      </c>
+      <c r="B93">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A94">
+        <v>21.5</v>
+      </c>
+      <c r="B94">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A95">
+        <v>21.7</v>
+      </c>
+      <c r="B95">
+        <v>184.99999999999997</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A96">
+        <v>21.9</v>
+      </c>
+      <c r="B96">
+        <v>189.99999999999994</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A97">
+        <v>22.1</v>
+      </c>
+      <c r="B97">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A98">
+        <v>22.3</v>
+      </c>
+      <c r="B98">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A99">
+        <v>22.5</v>
+      </c>
+      <c r="B99">
+        <v>205.12820512820511</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A100">
+        <v>22.7</v>
+      </c>
+      <c r="B100">
+        <v>210.25641025641022</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A101">
+        <v>22.9</v>
+      </c>
+      <c r="B101">
+        <v>215.38461538461533</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A102">
+        <v>23.1</v>
+      </c>
+      <c r="B102">
+        <v>220.51282051282055</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A103">
+        <v>23.3</v>
+      </c>
+      <c r="B103">
+        <v>225.64102564102564</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A104">
+        <v>23.5</v>
+      </c>
+      <c r="B104">
+        <v>230.76923076923077</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A105">
+        <v>23.7</v>
+      </c>
+      <c r="B105">
+        <v>235.89743589743588</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A106">
+        <v>23.9</v>
+      </c>
+      <c r="B106">
+        <v>241.02564102564099</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A107">
+        <v>24.1</v>
+      </c>
+      <c r="B107">
+        <v>246.15384615384619</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A108">
+        <v>24.3</v>
+      </c>
+      <c r="B108">
+        <v>251.2820512820513</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A109">
+        <v>24.5</v>
+      </c>
+      <c r="B109">
+        <v>256.41025641025641</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A110">
+        <v>24.7</v>
+      </c>
+      <c r="B110">
+        <v>261.53846153846155</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A111">
+        <v>24.9</v>
+      </c>
+      <c r="B111">
+        <v>266.66666666666663</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A112">
+        <v>25.1</v>
+      </c>
+      <c r="B112">
+        <v>271.79487179487182</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A113">
+        <v>25.3</v>
+      </c>
+      <c r="B113">
+        <v>276.92307692307696</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A114">
+        <v>25.5</v>
+      </c>
+      <c r="B114">
+        <v>282.05128205128204</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A115">
+        <v>25.7</v>
+      </c>
+      <c r="B115">
+        <v>287.17948717948718</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A116">
+        <v>25.9</v>
+      </c>
+      <c r="B116">
+        <v>292.30769230769226</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A117">
+        <v>26.1</v>
+      </c>
+      <c r="B117">
+        <v>297.43589743589746</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A118">
+        <v>26.2</v>
+      </c>
+      <c r="B118">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A119">
+        <v>26.3</v>
+      </c>
+      <c r="B119">
+        <v>302.92397660818716</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A120">
+        <v>26.5</v>
+      </c>
+      <c r="B120">
+        <v>308.77192982456143</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A121">
+        <v>26.7</v>
+      </c>
+      <c r="B121">
+        <v>314.61988304093569</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A122">
+        <v>26.9</v>
+      </c>
+      <c r="B122">
+        <v>320.4678362573099</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A123">
+        <v>27.1</v>
+      </c>
+      <c r="B123">
+        <v>326.31578947368428</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A124">
+        <v>27.3</v>
+      </c>
+      <c r="B124">
+        <v>332.16374269005848</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A125">
+        <v>27.5</v>
+      </c>
+      <c r="B125">
+        <v>338.01169590643275</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A126">
+        <v>27.7</v>
+      </c>
+      <c r="B126">
+        <v>343.85964912280701</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A127">
+        <v>27.9</v>
+      </c>
+      <c r="B127">
+        <v>349.70760233918122</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A128">
+        <v>28.1</v>
+      </c>
+      <c r="B128">
+        <v>355.5555555555556</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A129">
+        <v>28.3</v>
+      </c>
+      <c r="B129">
+        <v>361.40350877192986</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A130">
+        <v>28.5</v>
+      </c>
+      <c r="B130">
+        <v>367.25146198830407</v>
       </c>
     </row>
   </sheetData>
